--- a/docs/classificacao/Education_Level.xlsx
+++ b/docs/classificacao/Education_Level.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
   <si>
     <t>Ensino Fundamental 1</t>
   </si>
@@ -100,10 +100,94 @@
     <t>Education</t>
   </si>
   <si>
-    <t>Description_Education_level_new</t>
-  </si>
-  <si>
-    <t>Description_Education</t>
+    <t>Elementary school 2nd year</t>
+  </si>
+  <si>
+    <t>Elementary School 1</t>
+  </si>
+  <si>
+    <t>Elementary School 3rd year</t>
+  </si>
+  <si>
+    <t>Elementary school 4th year</t>
+  </si>
+  <si>
+    <t>Elementary school 5th year</t>
+  </si>
+  <si>
+    <t>Elementary Education 2</t>
+  </si>
+  <si>
+    <t>Elementary School 7th year</t>
+  </si>
+  <si>
+    <t>Elementary school 1st year</t>
+  </si>
+  <si>
+    <t>High school</t>
+  </si>
+  <si>
+    <t>Secondary - 2nd Series</t>
+  </si>
+  <si>
+    <t>Secondary - Non Series</t>
+  </si>
+  <si>
+    <t>Professional Education - Integrated 1st Series</t>
+  </si>
+  <si>
+    <t>Professional Education - Integrated</t>
+  </si>
+  <si>
+    <t>Professional Education - Integrated 2nd Series</t>
+  </si>
+  <si>
+    <t>Professional Education - Integrated 3rd Series</t>
+  </si>
+  <si>
+    <t>Professional Education - Integrated serial no</t>
+  </si>
+  <si>
+    <t>Professional Education - Concurrent</t>
+  </si>
+  <si>
+    <t>Professional Education - Subsequent</t>
+  </si>
+  <si>
+    <t>Description_Education_level_new_pt</t>
+  </si>
+  <si>
+    <t>Description_Education_level_new_en</t>
+  </si>
+  <si>
+    <t>Elementary school 6th year</t>
+  </si>
+  <si>
+    <t>Elementary School 8th year</t>
+  </si>
+  <si>
+    <t>Elementary School 9th ​​year</t>
+  </si>
+  <si>
+    <t>High School - 1st year</t>
+  </si>
+  <si>
+    <t>High School - 3rd year</t>
+  </si>
+  <si>
+    <t>High School - 4th year</t>
+  </si>
+  <si>
+    <t>Professional Education - 4th year Integrated</t>
+  </si>
+  <si>
+    <t>High School - 2nd year</t>
+  </si>
+  <si>
+    <t>Description_Education_pt</t>
+  </si>
+  <si>
+    <t>Description_Education_en</t>
   </si>
 </sst>
 </file>
@@ -167,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +262,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,11 +575,13 @@
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -502,16 +589,22 @@
         <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -521,14 +614,20 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -538,14 +637,20 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -555,14 +660,20 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -572,14 +683,20 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -589,14 +706,20 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -606,14 +729,20 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -623,14 +752,20 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -640,14 +775,20 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>14</v>
       </c>
@@ -657,14 +798,20 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>15</v>
       </c>
@@ -674,14 +821,20 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -691,14 +844,20 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>17</v>
       </c>
@@ -708,14 +867,20 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>18</v>
       </c>
@@ -725,14 +890,20 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>19</v>
       </c>
@@ -742,14 +913,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>20</v>
       </c>
@@ -759,14 +936,20 @@
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>21</v>
       </c>
@@ -776,14 +959,20 @@
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>41</v>
       </c>
@@ -793,14 +982,20 @@
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -810,14 +1005,20 @@
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -827,14 +1028,20 @@
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -844,14 +1051,20 @@
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>28</v>
       </c>
@@ -861,14 +1074,20 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>29</v>
       </c>
@@ -878,14 +1097,20 @@
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>30</v>
       </c>
@@ -895,14 +1120,20 @@
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>31</v>
       </c>
@@ -912,14 +1143,20 @@
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>32</v>
       </c>
@@ -929,14 +1166,20 @@
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>33</v>
       </c>
@@ -946,14 +1189,20 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>34</v>
       </c>
@@ -963,14 +1212,20 @@
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>35</v>
       </c>
@@ -980,14 +1235,20 @@
       <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>36</v>
       </c>
@@ -997,14 +1258,20 @@
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>37</v>
       </c>
@@ -1014,14 +1281,20 @@
       <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="1">
         <v>4</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>38</v>
       </c>
@@ -1031,14 +1304,20 @@
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1">
         <v>4</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>39</v>
       </c>
@@ -1048,14 +1327,20 @@
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1">
         <v>6</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>40</v>
       </c>
@@ -1065,11 +1350,17 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
